--- a/sporadic_movement.xlsx
+++ b/sporadic_movement.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xaibl\Documents\GitHub\pi-localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xaibl\Google Drive\School\Grad\MSU\ECE 813 - Advanced VLSI Design\Project\pi-localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020CEA5B-1D6E-4756-A5C1-1BA545FD220E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1368AB53-E888-499F-85B4-9B58D26F8A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{847D46BE-0844-4BDB-B1CD-8ED7F7976574}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{847D46BE-0844-4BDB-B1CD-8ED7F7976574}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sporadic" sheetId="1" r:id="rId1"/>
+    <sheet name="departing 4.4 ft s-1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
   <si>
     <t>46:17:23:90:42:a6</t>
   </si>
@@ -41,21 +42,44 @@
   <si>
     <t>Distance(ft)</t>
   </si>
+  <si>
+    <t>61:bb:67:5f:bb:31</t>
+  </si>
+  <si>
+    <t>MAC ADDR</t>
+  </si>
+  <si>
+    <t>Meas Dist (ft)</t>
+  </si>
+  <si>
+    <t>Actual Dist (ft)</t>
+  </si>
+  <si>
+    <t>Percent Error</t>
+  </si>
+  <si>
+    <t>Position Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,11 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>sporadic!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -190,7 +218,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>sporadic!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="37"/>
@@ -501,7 +529,1476 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'departing 4.4 ft s-1'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.4564100630500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14230776512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5853931251799999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1307454327800004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6313514709500002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14230776512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.112265125888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.112265125888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3419357036299999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3419357036299999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8506883330299999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39248357879200002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9497464947499998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7182165313800004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6299270915799999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9497464947499998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6968719691900001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47659904335999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9497464947499998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4564100630500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7182165313800004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6096080179700003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6667068976700001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8255932190899999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.882065968399999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8255932190899999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7182165313800004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.5912425444</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8506883330299999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5912425444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6096080179700003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.6667068976700001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2902861669900001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.133329108600002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8506883330299999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3566259262999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.1825955058</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.5912425444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.882065968399999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.976489994600001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C00-4D3F-A0E8-3C2C32BEA5F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'departing 4.4 ft s-1'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.09375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.53125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.96875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.40625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.84375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.28125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.71875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.15625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.59375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.03125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.46875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.90625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.34375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.78125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.21875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.4375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.65625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.09375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.3125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.53125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C00-4D3F-A0E8-3C2C32BEA5F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="305575776"/>
+        <c:axId val="304744824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="305575776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304744824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304744824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305575776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Error</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'departing 4.4 ft s-1'!$E$2:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2219783548342855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96376244285302859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.294469230902858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93564169747485715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4395670966857127E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91446466599009513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92668399942008162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3382489735028571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.18955464311365075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15397104775771434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83688994128124672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12371295038095231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0108014176281319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1412482966269388</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10102963969523815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.6249134054285728E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87183891270991598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25085803307936511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64958554873984964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.3070209214582858</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4520855444898622E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.8008741605548052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.55539741000546583</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.4537268511238093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.43096561720502857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.4007088140660062E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.79322625090370369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69784680277061228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.66955547497931034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29758354011885707</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.27803972684534561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.81567340471571426</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.3734481882043292</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75116795522285718</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1697468177893878</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.80096450867301594</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.30857050741621622</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.54972222176240593</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.1620794132864471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7124-488F-8F17-33F581042609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532014648"/>
+        <c:axId val="532012024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532014648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532012024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532012024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532014648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'departing 4.4 ft s-1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Position Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'departing 4.4 ft s-1'!$F$2:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-1.4564100630500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.92355776511999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42164606874819999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4744954327800004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81868648529050003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.8557765119999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2002348741119999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4189848741119999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.59193570362999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.37318570362999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33681166697000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.013766421208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.32474649474999984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.8744665313800004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43257290842000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33150350525000016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19687196919000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2421509566400002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98775350525000016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6998399369500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3432165313800004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.5858017970000304E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8542068976700001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7943432190899999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.6320659683999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.3568432190899999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0716531380000411E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.6849925444</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2743116669700001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.2474925444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9528919820299997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.8854568976700001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7097138330099995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.9145791086000017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5868116669700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2996240737000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.3075955058000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.4974925444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.5695659683999992</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-18.445239994600001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD9F-48EC-8365-B0C5FE09FCF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="529473160"/>
+        <c:axId val="529466272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="529473160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529466272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529466272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529473160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1057,20 +2554,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1090,6 +4096,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5021E1D9-89DE-47A0-9C6B-C52A66B54EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A835C4-E00A-41FC-A09C-AEC82D27542D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED17BD3E-C7EC-4233-A496-403596F1A1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1397,18 +4516,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D471F1A4-CEFA-481C-AEFA-AC3DF0943338}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +4549,7 @@
         <v>0.69511606892800004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +4560,7 @@
         <v>9.58652927274</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +4571,7 @@
         <v>7.8255932190899999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +4582,7 @@
         <v>14.1825955058</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +4593,7 @@
         <v>7.8255932190899999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +4604,7 @@
         <v>14.1825955058</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +4615,7 @@
         <v>9.58652927274</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +4626,7 @@
         <v>7.0573822461400004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +4637,7 @@
         <v>12.882065968399999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +4648,7 @@
         <v>7.8255932190899999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +4659,7 @@
         <v>10.5912425444</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1551,7 +4670,7 @@
         <v>7.8255932190899999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +4681,7 @@
         <v>20.608563656800001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +4692,7 @@
         <v>14.1825955058</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +4703,7 @@
         <v>10.5912425444</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +4714,7 @@
         <v>6.3566259262999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +4725,7 @@
         <v>41.443658787700002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +4736,7 @@
         <v>6.3566259262999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +4747,7 @@
         <v>3.3043392497199999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +4758,7 @@
         <v>0.83511565476100003</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +4769,7 @@
         <v>0.69511606892800004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +4780,7 @@
         <v>0.83511565476100003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +4791,7 @@
         <v>1.2902861669900001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +4802,7 @@
         <v>4.6096080179700003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +4813,7 @@
         <v>10.5912425444</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +4824,7 @@
         <v>26.976489994600001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +4835,7 @@
         <v>4.6096080179700003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +4846,7 @@
         <v>29.4510094151</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +4857,7 @@
         <v>5.1373696851900004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +4868,7 @@
         <v>11.6874240647</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +4879,7 @@
         <v>5.7182165313800004</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +4890,7 @@
         <v>10.5912425444</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +4901,7 @@
         <v>6.3566259262999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +4912,7 @@
         <v>5.7182165313800004</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +4923,7 @@
         <v>5.7182165313800004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +4934,7 @@
         <v>5.7182165313800004</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1830,4 +4949,1069 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B8C06-B8F1-4BBF-A3E3-0138189E391E}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.4564100630500001</v>
+      </c>
+      <c r="C2">
+        <f>3.5*2.5*(D2-1)/40</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="e">
+        <f>(C2-B2)/C2*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(C2-B2)</f>
+        <v>-1.4564100630500001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.14230776512</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C41" si="0">3.5*2.5*(D3-1)/40</f>
+        <v>0.21875</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E40" si="1">(C3-B3)/C3</f>
+        <v>-4.2219783548342855</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F41" si="2">(C3-B3)</f>
+        <v>-0.92355776511999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5853931251799999E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96376244285302859</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42164606874819999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.1307454327800004</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.294469230902858</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.4744954327800004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.6313514709500002E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93564169747485715</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.81868648529050003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.14230776512</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.09375</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.4395670966857127E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.8557765119999985E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.112265125888</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91446466599009513</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2002348741119999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.112265125888</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.53125</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.92668399942008162</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4189848741119999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.3419357036299999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.3382489735028571</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.59193570362999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.3419357036299999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.96875</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.18955464311365075</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.37318570362999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.8506883330299999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.1875</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15397104775771434</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33681166697000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.39248357879200002</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.40625</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.83688994128124672</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.013766421208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.9497464947499998</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.12371295038095231</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.32474649474999984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.7182165313800004</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.84375</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0108014176281319</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.8744665313800004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.6299270915799999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.0625</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1412482966269388</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43257290842000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.9497464947499998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3.28125</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10102963969523815</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33150350525000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.6968719691900001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.6249134054285728E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.19687196919000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.47659904335999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.71875</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.87183891270991598</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2421509566400002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.9497464947499998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3.9375</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25085803307936511</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.98775350525000016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.4564100630500001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.15625</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64958554873984964</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6998399369500001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5.7182165313800004</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.3070209214582858</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.3432165313800004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.6096080179700003</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.59375</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.4520855444898622E-3</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.5858017970000304E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>8.6667068976700001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.8125</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.8008741605548052</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.8542068976700001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.8255932190899999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5.03125</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.55539741000546583</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.7943432190899999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>12.882065968399999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.4537268511238093</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.6320659683999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7.8255932190899999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5.46875</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.43096561720502857</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.3568432190899999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5.7182165313800004</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5.6875</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.4007088140660062E-3</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.0716531380000411E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10.5912425444</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>5.90625</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.79322625090370369</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.6849925444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.8506883330299999</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.69784680277061228</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2743116669700001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10.5912425444</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6.34375</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.66955547497931034</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.2474925444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4.6096080179700003</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>6.5625</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29758354011885707</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9528919820299997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8.6667068976700001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>6.78125</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.27803972684534561</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.8854568976700001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.2902861669900001</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>0.81567340471571426</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>5.7097138330099995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>17.133329108600002</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>7.21875</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.3734481882043292</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.9145791086000017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1.8506883330299999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>7.4375</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75116795522285718</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>5.5868116669700001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6.3566259262999996</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.65625</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1697468177893878</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2996240737000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>14.1825955058</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.875</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.80096450867301594</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.3075955058000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10.5912425444</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8.09375</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.30857050741621622</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.4974925444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>12.882065968399999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>8.3125</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.54972222176240593</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.5695659683999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5">
+        <v>26.976489994600001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>8.53125</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="5">
+        <f>(C41-B41)/C41</f>
+        <v>-2.1620794132864471</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>-18.445239994600001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5">
+        <v>14.1825955058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="5">
+        <v>17.133329108600002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5">
+        <v>9.58652927274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="5">
+        <v>20.608563656800001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6.3566259262999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4.6096080179700003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2.9497464947499998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7.0573822461400004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2.3419357036299999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.0573822461400004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5.7182165313800004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4.6096080179700003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5.1373696851900004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>